--- a/medicine/Mort/Cimetière_de_Rabastens/Cimetière_de_Rabastens.xlsx
+++ b/medicine/Mort/Cimetière_de_Rabastens/Cimetière_de_Rabastens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Rabastens</t>
+          <t>Cimetière_de_Rabastens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Rabastens est un cimetière municipal situé à Rabastens dans le département du Tarn[1] et le pays de l'Albigeois. Il se trouve près de l'église Saint-Pierre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Rabastens est un cimetière municipal situé à Rabastens dans le département du Tarn et le pays de l'Albigeois. Il se trouve près de l'église Saint-Pierre.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Rabastens</t>
+          <t>Cimetière_de_Rabastens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière planté de cyprès et d'un grand cèdre à l'entrée est riche d'un patrimoine architectural élégant dans sa partie ancienne. Nombre de sépultures du XIXe siècle et du début du XXe siècle appartiennent à des familles de militaires, de l'aristocratie locale ou de notables du négoce. La brique rose y est présente[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière planté de cyprès et d'un grand cèdre à l'entrée est riche d'un patrimoine architectural élégant dans sa partie ancienne. Nombre de sépultures du XIXe siècle et du début du XXe siècle appartiennent à des familles de militaires, de l'aristocratie locale ou de notables du négoce. La brique rose y est présente.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Rabastens</t>
+          <t>Cimetière_de_Rabastens</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Georges Bertrand (1899-1980), commissaire général de la marine
 Gustave de Clausade (1815-1888), avocat, homme de lettres, maire de Rabastens en 1848 (chapelle avec sculpture)
